--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -58,172 +58,172 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>years</t>
+    <t>easy</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>little</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>makes</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>quality</t>
   </si>
   <si>
     <t>one</t>
@@ -659,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -709,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2868217054263566</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2323232323232323</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.846749226006192</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>547</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>547</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +809,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +861,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +887,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -913,13 +913,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -939,13 +939,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -965,13 +965,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6986301369863014</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -991,13 +991,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6818181818181818</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1017,13 +1017,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.676056338028169</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1043,13 +1043,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6542372881355932</v>
+        <v>0.6514285714285715</v>
       </c>
       <c r="L15">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1069,13 +1069,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6470588235294118</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1121,13 +1121,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1147,13 +1147,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6114285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1173,13 +1173,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.59375</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1199,13 +1199,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5857142857142857</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1225,13 +1225,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5694444444444444</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1251,13 +1251,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5625</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1277,13 +1277,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.543859649122807</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1303,13 +1303,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5299145299145299</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M25">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1329,13 +1329,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5096153846153846</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1355,13 +1355,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4910179640718563</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="L27">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M27">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1381,13 +1381,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.481203007518797</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1407,13 +1407,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4761904761904762</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1433,13 +1433,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1459,13 +1459,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4578313253012048</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1485,13 +1485,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4262295081967213</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1511,13 +1511,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.3947368421052632</v>
+        <v>0.390625</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1537,13 +1537,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3915662650602409</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L34">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>101</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1563,13 +1563,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3692307692307693</v>
+        <v>0.3504901960784313</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1589,13 +1589,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.357843137254902</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="L36">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="M36">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>262</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1615,13 +1615,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.3233082706766917</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L37">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1641,13 +1641,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.308641975308642</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1667,13 +1667,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3073929961089494</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L39">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>178</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1693,13 +1693,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.2702702702702703</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>81</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1719,13 +1719,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2561643835616438</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L41">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>543</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1745,13 +1745,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2376237623762376</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1771,13 +1771,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.232508073196986</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L43">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="M43">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>713</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1797,13 +1797,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.219435736677116</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="L44">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>249</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1823,13 +1823,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2158273381294964</v>
+        <v>0.2346609257265877</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>109</v>
+        <v>711</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1849,13 +1849,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2105263157894737</v>
+        <v>0.2006269592476489</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>165</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1875,7 +1875,7 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1946308724832215</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="L47">
         <v>29</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1901,13 +1901,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.1920529801324503</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1953,13 +1953,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1602649006622517</v>
+        <v>0.1629139072847682</v>
       </c>
       <c r="L50">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M50">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1979,13 +1979,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.121654501216545</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>361</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2005,13 +2005,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1099656357388316</v>
+        <v>0.1070559610705596</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>259</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2031,13 +2031,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1008403361344538</v>
+        <v>0.1024258760107817</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>214</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2057,25 +2057,25 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.0945945945945946</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L54">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>335</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2083,13 +2083,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.09090909090909091</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="L55">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>400</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2109,13 +2109,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.08518518518518518</v>
+        <v>0.09225092250922509</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2161,13 +2161,13 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.07306590257879657</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L58">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>647</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2187,13 +2187,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.06830601092896176</v>
+        <v>0.06205250596658711</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>341</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2213,25 +2213,25 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.06682577565632458</v>
+        <v>0.06025824964131994</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>391</v>
+        <v>655</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2239,25 +2239,25 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.04944029850746268</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="L61">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M61">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2265,25 +2265,25 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.02424242424242424</v>
+        <v>0.02859618717504333</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
